--- a/yearly_stats.xlsx
+++ b/yearly_stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eren\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eren\PycharmProjects\pososyal_v2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEC76DE-3101-4A29-9B0A-8AA7FCEE1164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C936F5-D58A-4E26-BF2C-1B582ABBE45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4530" yWindow="3000" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{891ED9E9-98C4-4E78-BD14-9BBF51DB0EE3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>20/21</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>avg_goals_pg</t>
+  </si>
+  <si>
+    <t>22/23</t>
   </si>
 </sst>
 </file>
@@ -661,27 +664,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C898079-45CF-4E35-825D-9F81DE316E74}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -690,6 +696,9 @@
       </c>
       <c r="C2">
         <v>1.4039473680000001</v>
+      </c>
+      <c r="D2">
+        <v>1.523961661</v>
       </c>
     </row>
   </sheetData>
